--- a/medicine/Psychotrope/Campaign_for_Real_Ale/Campaign_for_Real_Ale.xlsx
+++ b/medicine/Psychotrope/Campaign_for_Real_Ale/Campaign_for_Real_Ale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La CAMpaign for Real Ale (acronyme CAMRA) est une organisation indépendante de consommateurs de bière britannique basée à St Albans, au Royaume-Uni.
@@ -512,7 +524,9 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La CAMRA a été fondé en 1971 par quatre passionnés du monde de la bière : Graham Lees, Bill Meller, Michael Hardman et Jim Makin sous le nom de « Campaign for the Revitalisation of Ale », qui devint le plus concis « Campaign for Real Ale » l'année suivante.
 Cette organisation regroupe 80 000 adhérents (avril 2006), édite chaque année un guide indépendant et sans publicité recensant les meilleurs débits de bières traditionnelles du Royaume-Uni (le « Good Beer Guide ») et organise le festival britannique de la bière (« Great British Beer Festival » ou GBBF) qui se déroule chaque année à Londres dans la première moitié du mois d'août, le « Festival national des bières d'hiver » (« National Winter Ales festival » ou NWAF), qui a lieu généralement à Manchester dans la deuxième moitié de janvier ainsi que, par l'intermédiaire de ses branches locales plusieurs dizaines de plus petits festivals locaux, très conviviaux et bon enfant, battant en brèche l'image qu'on en à l'étranger du « hooligan buveur de bière ».
@@ -544,7 +558,9 @@
           <t>Objectifs et campagnes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La raison d'être et l'objectif premier de la CAMRA est la défense et la promotion de la « cask conditioned ale », aussi appelée « cask ale » ou « real ale ». 
 Il s'agit de la manière traditionnelle de mettre la bière en fûts. Le terme « cask » qui désignait autrefois les fûts en bois, désigne maintenant les fûts métalliques aux flancs bombés, que l'on pose sur le côté, inclinés à l'aide de coins en bois, par opposition au keg, le fût métallique à plongeur destiné au tirage par pression de dioxyde de carbone, qui est la norme sur le continent.
@@ -593,7 +609,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La CAMRA récompense d'un prix le meilleur pub de l'année (Pub of the year), attribué par 4 000 membres actifs sur la base de leurs préférences personnelles, ainsi que le célèbre prix de la meilleure bière de Grande-Bretagne (« Champion Beer Of Britain » ou CBOB) qui est attribué lors du festival britannique de la bière, le Great British Beer Festival.
 </t>
